--- a/Template_Without_VBA/TemplateWithoutVBA.xlsx
+++ b/Template_Without_VBA/TemplateWithoutVBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I517684\Documents\SAP_IBP\integrated-business-planning-excel-add-in-templates-main (1)\integrated-business-planning-excel-add-in-templates-main\VBA_Template_2411_andOnwards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SAPDevelop\Excel_Templates\Template_Without_VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C88333-B9DC-4B39-8647-E894063830D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE7A16-F5E0-4E45-8699-4C4A58F8103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3615" yWindow="-16560" windowWidth="38700" windowHeight="15345" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAP IBP Formatting Sheet" sheetId="14" state="hidden" r:id="rId1"/>
@@ -557,16 +557,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1189,6 +1191,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1285,14 +1295,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1532,7 +1534,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -1548,7 +1550,7 @@
                   <a14:compatExt spid="_x0000_s24577"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BBA226-5B2E-476B-8D62-642DEA46B462}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1615,7 +1617,7 @@
                   <a14:compatExt spid="_x0000_s24578"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A44AB6A-18BE-4DA2-B7E1-E44F403E67F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1644,14 +1646,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1673,15 +1675,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>406400</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2533650</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1691,7 +1693,7 @@
                   <a14:compatExt spid="_x0000_s24579"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43413B4E-6C5E-48BC-AE5A-BB70CFD6EB48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1730,14 +1732,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1759,15 +1761,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>371475</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1777,7 +1779,7 @@
                   <a14:compatExt spid="_x0000_s24580"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DA197B-F62C-406E-B45F-5807A022275B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1816,14 +1818,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1845,15 +1847,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>48746</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1863,7 +1865,7 @@
                   <a14:compatExt spid="_x0000_s24581"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366A1875-109D-43EA-9188-D1476BFC93BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1902,14 +1904,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -1931,7 +1933,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1939,7 +1941,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>39220</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1949,7 +1951,7 @@
                   <a14:compatExt spid="_x0000_s24582"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE8771E-FE1E-4629-977A-EDF2114B6405}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1988,14 +1990,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2019,7 +2021,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -2035,7 +2037,7 @@
                   <a14:compatExt spid="_x0000_s24583"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B8142C-9446-429E-8597-697C3A3099F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2086,7 +2088,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
@@ -2102,7 +2104,7 @@
                   <a14:compatExt spid="_x0000_s24584"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79E70BC-8CAF-4502-A8C0-38D2BD8B8515}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2131,14 +2133,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2160,15 +2162,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>406400</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2533650</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2178,7 +2180,7 @@
                   <a14:compatExt spid="_x0000_s24585"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144D218C-4E7D-427A-8A6E-7030E585D41D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2217,14 +2219,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2246,15 +2248,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>69850</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>371475</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2264,7 +2266,7 @@
                   <a14:compatExt spid="_x0000_s24586"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0F11BC-57C4-41BC-819D-9B3654A29B8F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2303,14 +2305,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2332,7 +2334,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>209550</xdr:rowOff>
         </xdr:from>
@@ -2340,7 +2342,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>28576</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2350,7 +2352,7 @@
                   <a14:compatExt spid="_x0000_s24587"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9EC05B-9419-49E9-8DA2-603A10582FC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2389,14 +2391,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2418,7 +2420,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -2426,7 +2428,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>28574</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2436,7 +2438,7 @@
                   <a14:compatExt spid="_x0000_s24588"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A6ADDD-C8B0-401D-B287-7C2B58B9E697}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2475,14 +2477,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2504,7 +2506,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -2512,7 +2514,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2522,7 +2524,7 @@
                   <a14:compatExt spid="_x0000_s24589"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A58C505-B6E9-44B0-A854-D50019BD42DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2561,14 +2563,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2590,7 +2592,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -2598,7 +2600,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2608,7 +2610,7 @@
                   <a14:compatExt spid="_x0000_s24590"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567100C1-8C6F-4265-86EB-59A9A73E049A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2647,14 +2649,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2676,9 +2678,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>44450</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -2694,7 +2696,7 @@
                   <a14:compatExt spid="_x0000_s24591"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD755353-92B7-443B-BA0D-E8EF802BA20E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2733,14 +2735,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2764,13 +2766,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>4489450</xdr:colOff>
+          <xdr:colOff>4486275</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2780,7 +2782,7 @@
                   <a14:compatExt spid="_x0000_s24592"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221AEE53-D4E5-491E-983B-57781FF91315}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2802,14 +2804,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2832,7 +2834,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2840,7 +2842,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>27454</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2850,7 +2852,7 @@
                   <a14:compatExt spid="_x0000_s24593"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A72D5D9-0559-4D21-B49A-958D9E47C794}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2889,14 +2891,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2918,7 +2920,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2926,7 +2928,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>27455</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2936,7 +2938,7 @@
                   <a14:compatExt spid="_x0000_s24594"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577DF97D-1121-4E62-B874-693AB1DEBD3C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2975,14 +2977,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3004,7 +3006,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3012,7 +3014,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>27455</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3022,7 +3024,7 @@
                   <a14:compatExt spid="_x0000_s24595"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC71F9FD-5898-4466-ACC7-7E3A8ED273C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3061,14 +3063,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3090,7 +3092,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3098,7 +3100,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>27454</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3108,7 +3110,7 @@
                   <a14:compatExt spid="_x0000_s24596"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F81715-92EE-405E-B120-CA9607CAC6B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3147,14 +3149,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3176,15 +3178,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>28574</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3194,7 +3196,7 @@
                   <a14:compatExt spid="_x0000_s24597"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8DABE9-0051-4946-9E11-CFEB0AE2FB78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3233,14 +3235,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3264,11 +3266,11 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>4489450</xdr:colOff>
+          <xdr:colOff>4486275</xdr:colOff>
           <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3280,7 +3282,7 @@
                   <a14:compatExt spid="_x0000_s24598"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DDD6A2-F1BA-4494-8256-DD6291F058E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3302,14 +3304,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3334,7 +3336,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -3350,7 +3352,7 @@
                   <a14:compatExt spid="_x0000_s24599"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F20D84-3176-4327-9088-1A701D13066C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3401,13 +3403,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>349250</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3417,7 +3419,7 @@
                   <a14:compatExt spid="_x0000_s24600"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB60FF2E-906B-4853-A1C2-7779F58DA4A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3446,14 +3448,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3475,7 +3477,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>406400</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -3493,7 +3495,7 @@
                   <a14:compatExt spid="_x0000_s24601"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684ABC83-E545-4A9A-869D-AF909011636C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3532,14 +3534,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3561,7 +3563,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
@@ -3579,7 +3581,7 @@
                   <a14:compatExt spid="_x0000_s24602"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61B57A2-C168-4839-B951-2023C29DF1BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3618,14 +3620,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3647,7 +3649,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>76</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3655,7 +3657,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>27454</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3665,7 +3667,7 @@
                   <a14:compatExt spid="_x0000_s24603"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80275D9-0B31-4F11-B799-384A90EC559C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3704,14 +3706,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3733,7 +3735,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3741,7 +3743,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>81</xdr:row>
-          <xdr:rowOff>27454</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3751,7 +3753,7 @@
                   <a14:compatExt spid="_x0000_s24604"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA44191-8D00-467D-BDE8-8F778CB94F61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3790,14 +3792,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3819,15 +3821,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>36980</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3837,7 +3839,7 @@
                   <a14:compatExt spid="_x0000_s24605"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54964842-B12E-42E2-90EE-A7D43FCCF686}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3876,14 +3878,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3905,15 +3907,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>120650</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>87</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>36979</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3923,7 +3925,7 @@
                   <a14:compatExt spid="_x0000_s24606"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30846B66-472E-471D-B603-2F57CCAA65BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3962,14 +3964,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3993,13 +3995,13 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>711200</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4009,7 +4011,7 @@
                   <a14:compatExt spid="_x0000_s24607"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0456B38C-0F2A-4182-953C-630412044208}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4038,7 +4040,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4061,15 +4063,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>577850</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4079,7 +4081,7 @@
                   <a14:compatExt spid="_x0000_s24608"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0ABC3DE-5DF8-4EF6-8691-6708B0D0F898}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4108,7 +4110,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4133,13 +4135,13 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>711200</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4149,7 +4151,7 @@
                   <a14:compatExt spid="_x0000_s24609"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFBAC69-9FB4-4113-8F71-0C045F91F056}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4178,7 +4180,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4201,15 +4203,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>704850</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4219,7 +4221,7 @@
                   <a14:compatExt spid="_x0000_s24610"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FE60B9-E900-414E-A1B0-019C64CC3790}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4248,7 +4250,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4277,7 +4279,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>711200</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4289,7 +4291,7 @@
                   <a14:compatExt spid="_x0000_s24611"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3239E7-DF0B-497B-B6DE-4A06A6CA4FF6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4318,7 +4320,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4341,13 +4343,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>577850</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4359,7 +4361,7 @@
                   <a14:compatExt spid="_x0000_s24612"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF9F78A-4CD8-4DE5-A9AB-AAC61B53967D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4388,7 +4390,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4417,7 +4419,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>711200</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4429,7 +4431,7 @@
                   <a14:compatExt spid="_x0000_s24613"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A320F35F-E43A-4E4C-9E8C-67915A84AAE3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4458,7 +4460,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4481,7 +4483,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4499,7 +4501,7 @@
                   <a14:compatExt spid="_x0000_s24614"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8F910E-94CE-4C15-859A-0B8FE1062E84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4528,7 +4530,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4557,7 +4559,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>711200</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4569,7 +4571,7 @@
                   <a14:compatExt spid="_x0000_s24615"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6A67F0-0C2E-42FF-B222-39DDAADB71F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4598,7 +4600,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4621,13 +4623,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>577850</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4639,7 +4641,7 @@
                   <a14:compatExt spid="_x0000_s24616"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975C84C3-CFE6-42E7-ACCE-24C9CD7AFDFD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4668,7 +4670,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4697,7 +4699,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>711200</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4709,7 +4711,7 @@
                   <a14:compatExt spid="_x0000_s24617"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327E8759-4CB3-4649-B907-8C772FB66281}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4738,7 +4740,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4761,7 +4763,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4779,7 +4781,7 @@
                   <a14:compatExt spid="_x0000_s24618"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDE12C6-AD52-4B4F-8E00-AF04E9D4A06D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4808,7 +4810,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4837,7 +4839,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>711200</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4849,7 +4851,7 @@
                   <a14:compatExt spid="_x0000_s24619"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9059E291-6B99-4F8C-BB81-73EC6CBF7B23}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4878,7 +4880,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4901,13 +4903,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>577850</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4919,7 +4921,7 @@
                   <a14:compatExt spid="_x0000_s24620"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B2857B-1364-41A0-A4D0-C20110EB22E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4948,7 +4950,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4977,7 +4979,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>711200</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4989,7 +4991,7 @@
                   <a14:compatExt spid="_x0000_s24621"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A102B1-6A5A-4B2E-9ECE-09795447D651}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5018,7 +5020,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5041,7 +5043,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>733425</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5059,7 +5061,7 @@
                   <a14:compatExt spid="_x0000_s24622"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF173D0F-38E7-46D2-A89A-11359142624C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E600000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5088,7 +5090,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5339,9 +5341,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5683,44 +5685,44 @@
       <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="36.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="10.6328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="90.6328125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="90.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -5736,7 +5738,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -5752,7 +5754,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5766,45 +5768,45 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="78"/>
       <c r="Q5" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
       <c r="Q6" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="15"/>
@@ -5817,13 +5819,13 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="16"/>
-      <c r="Q7" s="72" t="s">
+      <c r="Q7" s="74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="55"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -5834,35 +5836,35 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="10"/>
-      <c r="Q8" s="72"/>
-    </row>
-    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="74"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="55"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="72"/>
-    </row>
-    <row r="10" spans="1:17" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="74"/>
+    </row>
+    <row r="10" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="60"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="2"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -5872,12 +5874,12 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="10"/>
-      <c r="Q10" s="72"/>
-    </row>
-    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="74"/>
+    </row>
+    <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="35" t="s">
         <v>8</v>
       </c>
@@ -5897,12 +5899,12 @@
       <c r="L11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="72"/>
-    </row>
-    <row r="12" spans="1:17" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="74"/>
+    </row>
+    <row r="12" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="13"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -5912,11 +5914,11 @@
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="14"/>
-      <c r="Q12" s="72"/>
-    </row>
-    <row r="13" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="74"/>
+    </row>
+    <row r="13" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2"/>
@@ -5929,11 +5931,11 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="10"/>
-      <c r="Q13" s="72"/>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="74"/>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="55"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5944,35 +5946,35 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="10"/>
-      <c r="Q14" s="72"/>
-    </row>
-    <row r="15" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="74"/>
+    </row>
+    <row r="15" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="55"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="72"/>
-    </row>
-    <row r="16" spans="1:17" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="74"/>
+    </row>
+    <row r="16" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="2"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -5982,12 +5984,12 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="10"/>
-      <c r="Q16" s="72"/>
-    </row>
-    <row r="17" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="74"/>
+    </row>
+    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="35" t="s">
         <v>8</v>
       </c>
@@ -6007,12 +6009,12 @@
       <c r="L17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q17" s="72"/>
-    </row>
-    <row r="18" spans="1:17" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q17" s="74"/>
+    </row>
+    <row r="18" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="13"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -6022,9 +6024,9 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="14"/>
-      <c r="Q18" s="72"/>
-    </row>
-    <row r="19" spans="1:17" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="74"/>
+    </row>
+    <row r="19" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6037,9 +6039,9 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="Q19" s="72"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q19" s="74"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6054,45 +6056,45 @@
       <c r="L20" s="2"/>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="1:17" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
       <c r="Q21" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="69"/>
-      <c r="Q22" s="72" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="71"/>
+      <c r="Q22" s="74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2"/>
@@ -6105,35 +6107,35 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="10"/>
-      <c r="Q23" s="72"/>
-    </row>
-    <row r="24" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="74"/>
+    </row>
+    <row r="24" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="72"/>
-    </row>
-    <row r="25" spans="1:17" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="74"/>
+    </row>
+    <row r="25" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="60"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -6143,12 +6145,12 @@
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="10"/>
-      <c r="Q25" s="72"/>
-    </row>
-    <row r="26" spans="1:17" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="Q25" s="74"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="61"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="35" t="s">
         <v>14</v>
       </c>
@@ -6168,12 +6170,12 @@
       <c r="L26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="72"/>
-    </row>
-    <row r="27" spans="1:17" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="74"/>
+    </row>
+    <row r="27" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="52"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6183,12 +6185,12 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="53"/>
-      <c r="Q27" s="72"/>
-    </row>
-    <row r="28" spans="1:17" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q27" s="74"/>
+    </row>
+    <row r="28" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="2"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -6198,12 +6200,12 @@
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="10"/>
-      <c r="Q28" s="72"/>
-    </row>
-    <row r="29" spans="1:17" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="Q28" s="74"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="61"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="35" t="s">
         <v>15</v>
       </c>
@@ -6223,12 +6225,12 @@
       <c r="L29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q29" s="72"/>
-    </row>
-    <row r="30" spans="1:17" ht="5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q29" s="74"/>
+    </row>
+    <row r="30" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="52"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -6240,10 +6242,10 @@
       <c r="L30" s="53"/>
       <c r="Q30" s="23"/>
     </row>
-    <row r="31" spans="1:17" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="61"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="2"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
@@ -6254,10 +6256,10 @@
       <c r="K31" s="34"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="1:17" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="61"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="35" t="s">
         <v>37</v>
       </c>
@@ -6278,10 +6280,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="52"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -6292,10 +6294,10 @@
       <c r="K33" s="7"/>
       <c r="L33" s="53"/>
     </row>
-    <row r="34" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="61"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="2"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
@@ -6306,10 +6308,10 @@
       <c r="K34" s="34"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="61"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="35" t="s">
         <v>31</v>
       </c>
@@ -6330,10 +6332,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="52"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -6344,10 +6346,10 @@
       <c r="K36" s="7"/>
       <c r="L36" s="53"/>
     </row>
-    <row r="37" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="61"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="2"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
@@ -6358,10 +6360,10 @@
       <c r="K37" s="34"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="61"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="35" t="s">
         <v>17</v>
       </c>
@@ -6374,9 +6376,9 @@
       <c r="K38" s="34"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="55"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="50"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
@@ -6388,9 +6390,9 @@
       <c r="K39" s="34"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="55"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="50"/>
       <c r="D40" s="40" t="s">
         <v>18</v>
@@ -6412,9 +6414,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="55"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="50"/>
       <c r="D41" s="31"/>
       <c r="E41" s="7"/>
@@ -6426,9 +6428,9 @@
       <c r="K41" s="7"/>
       <c r="L41" s="53"/>
     </row>
-    <row r="42" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="55"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="50"/>
       <c r="D42" s="35"/>
       <c r="E42" s="34"/>
@@ -6440,15 +6442,15 @@
       <c r="K42" s="34"/>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="55"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="50"/>
       <c r="D43" s="40" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="34"/>
-      <c r="F43" s="83">
+      <c r="F43" s="54">
         <v>1</v>
       </c>
       <c r="G43" s="34"/>
@@ -6464,9 +6466,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="55"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="50"/>
       <c r="D44" s="31"/>
       <c r="E44" s="7"/>
@@ -6478,9 +6480,9 @@
       <c r="K44" s="7"/>
       <c r="L44" s="53"/>
     </row>
-    <row r="45" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="55"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="50"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -6492,9 +6494,9 @@
       <c r="K45" s="2"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:12" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="56"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="51"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -6506,9 +6508,9 @@
       <c r="K46" s="13"/>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="15"/>
@@ -6522,32 +6524,32 @@
       <c r="K47" s="15"/>
       <c r="L47" s="16"/>
     </row>
-    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="55"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="57" t="s">
+      <c r="I48" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="58"/>
-      <c r="K48" s="59"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="61"/>
       <c r="L48" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="60"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="2"/>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
@@ -6558,10 +6560,10 @@
       <c r="K49" s="34"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="61"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="35" t="s">
         <v>14</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>11</v>
       </c>
       <c r="I50" s="34"/>
-      <c r="J50" s="84" t="s">
+      <c r="J50" s="55" t="s">
         <v>10</v>
       </c>
       <c r="K50" s="34"/>
@@ -6582,10 +6584,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="62"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="52"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -6596,10 +6598,10 @@
       <c r="K51" s="7"/>
       <c r="L51" s="53"/>
     </row>
-    <row r="52" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="61"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="2"/>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
@@ -6610,10 +6612,10 @@
       <c r="K52" s="34"/>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="61"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="35" t="s">
         <v>15</v>
       </c>
@@ -6626,7 +6628,7 @@
         <v>11</v>
       </c>
       <c r="I53" s="34"/>
-      <c r="J53" s="84" t="s">
+      <c r="J53" s="55" t="s">
         <v>10</v>
       </c>
       <c r="K53" s="34"/>
@@ -6634,10 +6636,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="62"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="52"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -6648,10 +6650,10 @@
       <c r="K54" s="7"/>
       <c r="L54" s="53"/>
     </row>
-    <row r="55" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="61"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="2"/>
       <c r="E55" s="34"/>
       <c r="F55" s="34"/>
@@ -6662,10 +6664,10 @@
       <c r="K55" s="34"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="35" t="s">
         <v>37</v>
       </c>
@@ -6678,7 +6680,7 @@
         <v>11</v>
       </c>
       <c r="I56" s="34"/>
-      <c r="J56" s="84" t="s">
+      <c r="J56" s="55" t="s">
         <v>10</v>
       </c>
       <c r="K56" s="34"/>
@@ -6686,10 +6688,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="62"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="52"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -6700,10 +6702,10 @@
       <c r="K57" s="7"/>
       <c r="L57" s="53"/>
     </row>
-    <row r="58" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="61"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="2"/>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
@@ -6714,10 +6716,10 @@
       <c r="K58" s="34"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="61"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="35" t="s">
         <v>31</v>
       </c>
@@ -6730,7 +6732,7 @@
         <v>11</v>
       </c>
       <c r="I59" s="34"/>
-      <c r="J59" s="84" t="s">
+      <c r="J59" s="55" t="s">
         <v>10</v>
       </c>
       <c r="K59" s="34"/>
@@ -6738,10 +6740,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="62"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="52"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -6752,10 +6754,10 @@
       <c r="K60" s="7"/>
       <c r="L60" s="53"/>
     </row>
-    <row r="61" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="61"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="2"/>
       <c r="E61" s="34"/>
       <c r="F61" s="34"/>
@@ -6766,10 +6768,10 @@
       <c r="K61" s="34"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="61"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="35" t="s">
         <v>17</v>
       </c>
@@ -6782,9 +6784,9 @@
       <c r="K62" s="34"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="55"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="50"/>
       <c r="D63" s="35"/>
       <c r="E63" s="34"/>
@@ -6796,9 +6798,9 @@
       <c r="K63" s="34"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="55"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="50"/>
       <c r="D64" s="40" t="s">
         <v>33</v>
@@ -6812,7 +6814,7 @@
         <v>19</v>
       </c>
       <c r="I64" s="34"/>
-      <c r="J64" s="84" t="s">
+      <c r="J64" s="55" t="s">
         <v>10</v>
       </c>
       <c r="K64" s="34"/>
@@ -6820,9 +6822,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="55"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="50"/>
       <c r="D65" s="31"/>
       <c r="E65" s="7"/>
@@ -6834,9 +6836,9 @@
       <c r="K65" s="7"/>
       <c r="L65" s="53"/>
     </row>
-    <row r="66" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="55"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="50"/>
       <c r="D66" s="35"/>
       <c r="E66" s="34"/>
@@ -6848,9 +6850,9 @@
       <c r="K66" s="34"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="55"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="50"/>
       <c r="D67" s="40" t="s">
         <v>34</v>
@@ -6872,9 +6874,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="55"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="50"/>
       <c r="D68" s="31"/>
       <c r="E68" s="7"/>
@@ -6886,9 +6888,9 @@
       <c r="K68" s="7"/>
       <c r="L68" s="53"/>
     </row>
-    <row r="69" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="55"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="50"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6900,9 +6902,9 @@
       <c r="K69" s="2"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="56"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="51"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -6914,7 +6916,7 @@
       <c r="K70" s="13"/>
       <c r="L70" s="14"/>
     </row>
-    <row r="71" spans="1:12" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6928,7 +6930,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6942,39 +6944,39 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="66"/>
-    </row>
-    <row r="74" spans="1:12" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="68"/>
+    </row>
+    <row r="74" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="67"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="69"/>
-    </row>
-    <row r="75" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="69"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="71"/>
+    </row>
+    <row r="75" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="2"/>
@@ -6988,32 +6990,32 @@
       <c r="K75" s="2"/>
       <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="55"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="57" t="s">
+      <c r="E76" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F76" s="58"/>
-      <c r="G76" s="59"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I76" s="57" t="s">
+      <c r="I76" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J76" s="58"/>
-      <c r="K76" s="59"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="61"/>
       <c r="L76" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="60"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="2"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
@@ -7024,10 +7026,10 @@
       <c r="K77" s="34"/>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="61"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="35" t="s">
         <v>21</v>
       </c>
@@ -7048,10 +7050,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="62"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="52"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -7062,10 +7064,10 @@
       <c r="K79" s="7"/>
       <c r="L79" s="53"/>
     </row>
-    <row r="80" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="61"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="63"/>
       <c r="D80" s="2"/>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
@@ -7076,10 +7078,10 @@
       <c r="K80" s="34"/>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="61"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="63"/>
       <c r="D81" s="35" t="s">
         <v>22</v>
       </c>
@@ -7100,10 +7102,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="62"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="64"/>
       <c r="D82" s="52"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -7114,9 +7116,9 @@
       <c r="K82" s="7"/>
       <c r="L82" s="53"/>
     </row>
-    <row r="83" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="2"/>
@@ -7130,32 +7132,32 @@
       <c r="K83" s="2"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
-      <c r="B84" s="55"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="58"/>
-      <c r="G84" s="59"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I84" s="57" t="s">
+      <c r="I84" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J84" s="58"/>
-      <c r="K84" s="59"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="61"/>
       <c r="L84" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="60"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="2"/>
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
@@ -7166,10 +7168,10 @@
       <c r="K85" s="34"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="61"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="35" t="s">
         <v>21</v>
       </c>
@@ -7190,10 +7192,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="62"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="64"/>
       <c r="D87" s="52"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -7204,10 +7206,10 @@
       <c r="K87" s="7"/>
       <c r="L87" s="53"/>
     </row>
-    <row r="88" spans="1:12" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="61"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="63"/>
       <c r="D88" s="2"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
@@ -7218,10 +7220,10 @@
       <c r="K88" s="34"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="61"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="35" t="s">
         <v>22</v>
       </c>
@@ -7242,10 +7244,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="63"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="65"/>
       <c r="D90" s="13"/>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
@@ -7256,7 +7258,7 @@
       <c r="K90" s="18"/>
       <c r="L90" s="14"/>
     </row>
-    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7270,7 +7272,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7284,7 +7286,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7298,7 +7300,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7312,7 +7314,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7326,7 +7328,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7340,7 +7342,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7354,7 +7356,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7368,7 +7370,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7382,7 +7384,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7396,7 +7398,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -7410,7 +7412,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -7424,7 +7426,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -7438,7 +7440,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -7452,7 +7454,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -7466,7 +7468,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -7480,7 +7482,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -7494,7 +7496,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -7508,7 +7510,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -7522,7 +7524,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -7536,7 +7538,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -7550,7 +7552,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -7564,7 +7566,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -7578,7 +7580,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -7592,7 +7594,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -7606,7 +7608,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -7620,7 +7622,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7634,7 +7636,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7648,7 +7650,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -7662,7 +7664,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7676,7 +7678,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7690,7 +7692,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7704,7 +7706,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7718,7 +7720,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7732,7 +7734,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7746,7 +7748,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7760,7 +7762,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7774,7 +7776,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7788,7 +7790,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7802,7 +7804,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7816,7 +7818,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7830,7 +7832,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7844,7 +7846,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7858,7 +7860,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7872,7 +7874,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7886,7 +7888,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7900,7 +7902,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7914,7 +7916,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7928,7 +7930,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7942,7 +7944,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7956,7 +7958,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7970,7 +7972,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7984,7 +7986,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7998,7 +8000,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8012,7 +8014,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8026,7 +8028,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8043,29 +8045,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/Chmw4zSd3RJ1wMxaE3DbLzaXzujPt7FFSOhA/pH0mLBB1mHkoDZPXarzxdqU85i1j82PBx4Eb6X22eWPx1tJQ==" saltValue="Wv6Y+aUwtP+n2PtDScGYIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="43">
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="I84:K84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="B74:L74"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B47:B70"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="Q7:Q19"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="B21:L21"/>
@@ -8076,16 +8065,29 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="Q7:Q19"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B47:B70"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B74:L74"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8093,19 +8095,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24599" r:id="rId3" name="cbApplyOddEvenFormatting">
+        <control shapeId="24577" r:id="rId3" name="cbApplyLevelFormatting">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
             </anchor>
@@ -8113,23 +8115,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24599" r:id="rId3" name="cbApplyOddEvenFormatting"/>
+        <control shapeId="24577" r:id="rId3" name="cbApplyLevelFormatting"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="24583" r:id="rId5" name="cbApplyMemberFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
@@ -8143,19 +8145,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24577" r:id="rId7" name="cbApplyLevelFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId8">
+        <control shapeId="24599" r:id="rId6" name="cbApplyOddEvenFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
             </anchor>
@@ -8163,12 +8165,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24577" r:id="rId7" name="cbApplyLevelFormatting"/>
+        <control shapeId="24599" r:id="rId6" name="cbApplyOddEvenFormatting"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24578" r:id="rId9" name="Group Box 2">
+        <control shapeId="24578" r:id="rId8" name="Group Box 2">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -8190,20 +8192,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24579" r:id="rId10" name="obLevelRowFirst">
+        <control shapeId="24579" r:id="rId9" name="obLevelRowFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>406400</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>2533650</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>298450</xdr:rowOff>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8212,20 +8214,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24580" r:id="rId11" name="obLevelColumnFirst">
+        <control shapeId="24580" r:id="rId10" name="obLevelColumnFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>215900</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>374650</xdr:colOff>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>298450</xdr:rowOff>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8234,20 +8236,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24581" r:id="rId12" name="cbUseDefaultLevelFirst">
+        <control shapeId="24581" r:id="rId11" name="cbUseDefaultLevelFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8256,18 +8258,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24582" r:id="rId13" name="cbUseDefaultLevelSecond">
+        <control shapeId="24582" r:id="rId12" name="cbUseDefaultLevelSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8278,20 +8280,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24584" r:id="rId14" name="Group Box 8">
+        <control shapeId="24584" r:id="rId13" name="Group Box 8">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8300,20 +8302,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24585" r:id="rId15" name="obMemberRowFirst">
+        <control shapeId="24585" r:id="rId14" name="obMemberRowFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>406400</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>2533650</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>298450</xdr:rowOff>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8322,20 +8324,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24586" r:id="rId16" name="obMemberColumnFirst">
+        <control shapeId="24586" r:id="rId15" name="obMemberColumnFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>215900</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>69850</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>374650</xdr:colOff>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>298450</xdr:rowOff>
+                <xdr:rowOff>295275</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8344,18 +8346,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24587" r:id="rId17" name="cbApplyCalculatedMemberFirst">
+        <control shapeId="24587" r:id="rId16" name="cbApplyCalculatedMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8366,18 +8368,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24588" r:id="rId18" name="cbApplyImputableMemberFirst">
+        <control shapeId="24588" r:id="rId17" name="cbApplyImputableMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8388,18 +8390,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24589" r:id="rId19" name="cbApplyLocalMemberFirst">
+        <control shapeId="24589" r:id="rId18" name="cbApplyLocalMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8410,18 +8412,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24590" r:id="rId20" name="cbApplyChangedMemberFirst">
+        <control shapeId="24590" r:id="rId19" name="cbApplyChangedMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>35</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8432,20 +8434,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24591" r:id="rId21" name="cbApplySpecificMemberFirst">
+        <control shapeId="24591" r:id="rId20" name="cbApplySpecificMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>44450</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>38</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8454,20 +8456,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24592" r:id="rId22" name="AddMemberFirst">
+        <control shapeId="24592" r:id="rId21" name="AddMemberFirst">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>44</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>4489450</xdr:colOff>
+                <xdr:colOff>4486275</xdr:colOff>
                 <xdr:row>45</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8476,18 +8478,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24593" r:id="rId23" name="cbApplyCalculatedMemberSecond">
+        <control shapeId="24593" r:id="rId22" name="cbApplyCalculatedMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>48</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8498,18 +8500,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24594" r:id="rId24" name="cbApplyImputableMemberSecond">
+        <control shapeId="24594" r:id="rId23" name="cbApplyImputableMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8520,18 +8522,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24595" r:id="rId25" name="cbApplyLocalMemberSecond">
+        <control shapeId="24595" r:id="rId24" name="cbApplyLocalMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>56</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8542,18 +8544,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24596" r:id="rId26" name="cbApplyChangedMemberSecond">
+        <control shapeId="24596" r:id="rId25" name="cbApplyChangedMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>59</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8564,18 +8566,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24597" r:id="rId27" name="cbApplySpecificMemberSecond">
+        <control shapeId="24597" r:id="rId26" name="cbApplySpecificMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>60</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>62</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8586,18 +8588,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24598" r:id="rId28" name="AddMemberSecond">
+        <control shapeId="24598" r:id="rId27" name="AddMemberSecond">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>68</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>4489450</xdr:colOff>
+                <xdr:colOff>4486275</xdr:colOff>
                 <xdr:row>69</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8608,14 +8610,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24600" r:id="rId29" name="Group Box 24">
+        <control shapeId="24600" r:id="rId28" name="Group Box 24">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>72</xdr:row>
-                <xdr:rowOff>349250</xdr:rowOff>
+                <xdr:rowOff>352425</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
@@ -8630,12 +8632,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24601" r:id="rId30" name="obOddEvenRowFirst">
+        <control shapeId="24601" r:id="rId29" name="obOddEvenRowFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>406400</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>73</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
@@ -8643,7 +8645,7 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>2533650</xdr:colOff>
                 <xdr:row>73</xdr:row>
-                <xdr:rowOff>279400</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8652,20 +8654,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24602" r:id="rId31" name="obOddEvenColumnFirst">
+        <control shapeId="24602" r:id="rId30" name="obOddEvenColumnFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>215900</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>73</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>374650</xdr:colOff>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>73</xdr:row>
-                <xdr:rowOff>279400</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8674,18 +8676,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24603" r:id="rId32" name="cbUseOddFirst">
+        <control shapeId="24603" r:id="rId31" name="cbUseOddFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>78</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8696,18 +8698,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24604" r:id="rId33" name="cbUseEvenFirst">
+        <control shapeId="24604" r:id="rId32" name="cbUseEvenFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>79</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>81</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8718,18 +8720,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24605" r:id="rId34" name="cbUseOddSecond">
+        <control shapeId="24605" r:id="rId33" name="cbUseOddSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>84</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>86</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8740,18 +8742,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24606" r:id="rId35" name="cbUseEvenSecond">
+        <control shapeId="24606" r:id="rId34" name="cbUseEvenSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>120650</xdr:colOff>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>87</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1060450</xdr:colOff>
+                <xdr:colOff>1057275</xdr:colOff>
                 <xdr:row>89</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -8762,20 +8764,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24607" r:id="rId36" name="AddedMember1_1">
+        <control shapeId="24607" r:id="rId35" name="AddedMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>40</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8784,20 +8786,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24608" r:id="rId37" name="ChangeMember1_1">
+        <control shapeId="24608" r:id="rId36" name="ChangeMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>577850</xdr:colOff>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>40</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8806,20 +8808,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24609" r:id="rId38" name="UpMember1_1">
+        <control shapeId="24609" r:id="rId37" name="UpMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>40</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8828,20 +8830,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24610" r:id="rId39" name="DownMember1_1">
+        <control shapeId="24610" r:id="rId38" name="DownMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
                 <xdr:colOff>704850</xdr:colOff>
                 <xdr:row>40</xdr:row>
-                <xdr:rowOff>6350</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -8850,7 +8852,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24611" r:id="rId40" name="AddedMember1_2">
+        <control shapeId="24611" r:id="rId39" name="AddedMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -8861,7 +8863,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8872,18 +8874,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24612" r:id="rId41" name="ChangeMember1_2">
+        <control shapeId="24612" r:id="rId40" name="ChangeMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>577850</xdr:colOff>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8894,7 +8896,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24613" r:id="rId42" name="UpMember1_2">
+        <control shapeId="24613" r:id="rId41" name="UpMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -8905,7 +8907,7 @@
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8916,12 +8918,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24614" r:id="rId43" name="DownMember1_2">
+        <control shapeId="24614" r:id="rId42" name="DownMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -8938,7 +8940,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24615" r:id="rId44" name="AddedMember2_1">
+        <control shapeId="24615" r:id="rId43" name="AddedMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -8949,7 +8951,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8960,18 +8962,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24616" r:id="rId45" name="ChangeMember2_1">
+        <control shapeId="24616" r:id="rId44" name="ChangeMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>577850</xdr:colOff>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -8982,7 +8984,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24617" r:id="rId46" name="UpMember2_1">
+        <control shapeId="24617" r:id="rId45" name="UpMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -8993,7 +8995,7 @@
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -9004,12 +9006,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24618" r:id="rId47" name="DownMember2_1">
+        <control shapeId="24618" r:id="rId46" name="DownMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -9026,7 +9028,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24619" r:id="rId48" name="AddedMember2_2">
+        <control shapeId="24619" r:id="rId47" name="AddedMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -9037,7 +9039,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>67</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -9048,18 +9050,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24620" r:id="rId49" name="ChangeMember2_2">
+        <control shapeId="24620" r:id="rId48" name="ChangeMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>577850</xdr:colOff>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>67</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -9070,7 +9072,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24621" r:id="rId50" name="UpMember2_2">
+        <control shapeId="24621" r:id="rId49" name="UpMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -9081,7 +9083,7 @@
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>67</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -9092,12 +9094,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24622" r:id="rId51" name="DownMember2_2">
+        <control shapeId="24622" r:id="rId50" name="DownMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>736600</xdr:colOff>
+                <xdr:colOff>733425</xdr:colOff>
                 <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -9122,34 +9124,35 @@
   <dimension ref="A1:CG6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="AZ1048556" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="K6" sqref="K6"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6:CG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="9" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="9" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="23" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="str">
+    <row r="1" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="str">
         <f>" IBP | " &amp;IFERROR(IF(SOP_Favorite_Name&lt;&gt;" ",SOP_Favorite_Name,IF(SOP_Template_Name&lt;&gt;" ",SOP_Template_Name,"Ad Hoc Planning View")),"Offline")</f>
         <v xml:space="preserve"> IBP | Ad Hoc Planning View</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
@@ -9194,20 +9197,20 @@
       <c r="CF1" s="27"/>
       <c r="CG1" s="27"/>
     </row>
-    <row r="2" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="str">
+    <row r="2" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="str">
         <f ca="1">"Planning Area: "&amp;IFERROR(_xlfn.SINGLE(SOP_Planning_Area),"Offline")&amp;" | User: "&amp;_xlfn.SINGLE(_xll.IBPUser())</f>
         <v>Planning Area: Planning area | User: #Error, no current connection.</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
@@ -9252,20 +9255,20 @@
       <c r="CF2" s="27"/>
       <c r="CG2" s="27"/>
     </row>
-    <row r="3" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="str" cm="1">
+    <row r="3" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="str" cm="1">
         <f t="array" ref="A3">"Last Refresh: "&amp;IFERROR(YEAR(SOP_Refresh_Timestamp)&amp;"-"&amp;TEXT(SOP_Refresh_Timestamp,"MMM")&amp;"-"&amp;DAY(SOP_Refresh_Timestamp)&amp;" "&amp;TEXT(SOP_Refresh_Timestamp,"HH:MM:SS"),"Offline")&amp;" | UoM: "&amp;IFERROR(SOP_TargetUoM,"(None)")&amp;" | Currency: "&amp;IFERROR(SOP_TargetCurrency,"(None)")</f>
         <v>Last Refresh: 1900-Jan-0 00:00:00 | UoM: (None) | Currency: (None)</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
@@ -9310,7 +9313,7 @@
       <c r="CF3" s="27"/>
       <c r="CG3" s="27"/>
     </row>
-    <row r="4" spans="1:85" s="26" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:85" s="26" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -9365,7 +9368,7 @@
       <c r="CF4" s="27"/>
       <c r="CG4" s="27"/>
     </row>
-    <row r="5" spans="1:85" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:85" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="str">
         <f>SOP_Heading10</f>
         <v xml:space="preserve"> </v>
@@ -9429,7 +9432,7 @@
       <c r="AC5" s="29"/>
       <c r="AD5" s="29"/>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="J6" s="47" t="s">
         <v>24</v>
       </c>
@@ -9444,15 +9447,16 @@
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <customProperties>
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-  <picture r:id="rId5"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+  <picture r:id="rId6"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3093" r:id="rId6" name="FPMExcelClientSheetOptionstb1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="3093" r:id="rId7" name="FPMExcelClientSheetOptionstb1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -9471,7 +9475,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3093" r:id="rId6" name="FPMExcelClientSheetOptionstb1"/>
+        <control shapeId="3093" r:id="rId7" name="FPMExcelClientSheetOptionstb1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9484,34 +9488,34 @@
   <dimension ref="A1:CG6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="AZ1048556" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6:CG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="9" width="1.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="9" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="23" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="str">
+    <row r="1" spans="1:85" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="str">
         <f>" IBP | " &amp;IFERROR(IF(SOP_Favorite_Name&lt;&gt;" ",SOP_Favorite_Name,IF(SOP_Template_Name&lt;&gt;" ",SOP_Template_Name,"Ad Hoc Planning View")),"Offline")</f>
         <v xml:space="preserve"> IBP | Ad Hoc Planning View</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="42"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
@@ -9556,20 +9560,20 @@
       <c r="CF1" s="27"/>
       <c r="CG1" s="27"/>
     </row>
-    <row r="2" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="str">
+    <row r="2" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="str">
         <f ca="1">"Planning Area: "&amp;IFERROR(_xlfn.SINGLE(SOP_Planning_Area),"Offline")&amp;" | User: "&amp;_xlfn.SINGLE(_xll.IBPUser())</f>
         <v>Planning Area: Planning area | User: #Error, no current connection.</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="42"/>
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
@@ -9614,20 +9618,20 @@
       <c r="CF2" s="27"/>
       <c r="CG2" s="27"/>
     </row>
-    <row r="3" spans="1:85" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="str" cm="1">
+    <row r="3" spans="1:85" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="str" cm="1">
         <f t="array" ref="A3">"Last Refresh: "&amp;IFERROR(YEAR(SOP_Refresh_Timestamp)&amp;"-"&amp;TEXT(SOP_Refresh_Timestamp,"MMM")&amp;"-"&amp;DAY(SOP_Refresh_Timestamp)&amp;" "&amp;TEXT(SOP_Refresh_Timestamp,"HH:MM:SS"),"Offline")&amp;" | UoM: "&amp;IFERROR(SOP_TargetUoM,"(None)")&amp;" | Currency: "&amp;IFERROR(SOP_TargetCurrency,"(None)")</f>
         <v>Last Refresh: 1900-Jan-0 00:00:00 | UoM: (None) | Currency: (None)</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
@@ -9672,7 +9676,7 @@
       <c r="CF3" s="27"/>
       <c r="CG3" s="27"/>
     </row>
-    <row r="4" spans="1:85" s="26" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:85" s="26" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -9727,7 +9731,7 @@
       <c r="CF4" s="27"/>
       <c r="CG4" s="27"/>
     </row>
-    <row r="5" spans="1:85" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:85" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="str">
         <f>SOP_Heading10</f>
         <v xml:space="preserve"> </v>
@@ -9791,11 +9795,10 @@
       <c r="AC5" s="29"/>
       <c r="AD5" s="29"/>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="J6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9807,15 +9810,41 @@
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <customProperties>
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-  <picture r:id="rId5"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+  <picture r:id="rId6"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId6" name="FPMExcelClientSheetOptionstb1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="5127" r:id="rId7" name="TextBox2">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId8">
+            <anchor>
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5127" r:id="rId7" name="TextBox2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5121" r:id="rId9" name="FPMExcelClientSheetOptionstb1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -9834,34 +9863,15 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId6" name="FPMExcelClientSheetOptionstb1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5127" r:id="rId8" name="TextBox2">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId9">
-            <anchor>
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>88900</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>12700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5127" r:id="rId8" name="TextBox2"/>
+        <control shapeId="5121" r:id="rId9" name="FPMExcelClientSheetOptionstb1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{0cf7ac0a-4681-4823-ab0b-04ef02c5f873}" enabled="1" method="Standard" siteId="{42f7676c-f455-423c-82f6-dc2d99791af7}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Template_Without_VBA/TemplateWithoutVBA.xlsx
+++ b/Template_Without_VBA/TemplateWithoutVBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SAPDevelop\Excel_Templates\Template_Without_VBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE7A16-F5E0-4E45-8699-4C4A58F8103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5540184A-07F1-4C81-9ED2-CAD176FFA494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3615" yWindow="-16560" windowWidth="38700" windowHeight="15345" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12645" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAP IBP Formatting Sheet" sheetId="14" state="hidden" r:id="rId1"/>
@@ -1199,69 +1199,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1286,6 +1223,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
@@ -1538,7 +1538,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2025,7 +2025,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -3340,7 +3340,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -5708,19 +5708,19 @@
   <sheetData>
     <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -5770,43 +5770,43 @@
     </row>
     <row r="5" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
       <c r="Q5" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
       <c r="Q6" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="15"/>
@@ -5819,13 +5819,13 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="16"/>
-      <c r="Q7" s="74" t="s">
+      <c r="Q7" s="66" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -5836,35 +5836,35 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="10"/>
-      <c r="Q8" s="74"/>
+      <c r="Q8" s="66"/>
     </row>
     <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="57"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="74"/>
+      <c r="Q9" s="66"/>
     </row>
     <row r="10" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="2"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -5874,12 +5874,12 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="10"/>
-      <c r="Q10" s="74"/>
+      <c r="Q10" s="66"/>
     </row>
     <row r="11" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="35" t="s">
         <v>8</v>
       </c>
@@ -5899,12 +5899,12 @@
       <c r="L11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="74"/>
+      <c r="Q11" s="66"/>
     </row>
     <row r="12" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="13"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -5914,11 +5914,11 @@
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="14"/>
-      <c r="Q12" s="74"/>
+      <c r="Q12" s="66"/>
     </row>
     <row r="13" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2"/>
@@ -5931,11 +5931,11 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="10"/>
-      <c r="Q13" s="74"/>
+      <c r="Q13" s="66"/>
     </row>
     <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="57"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5946,35 +5946,35 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="10"/>
-      <c r="Q14" s="74"/>
+      <c r="Q14" s="66"/>
     </row>
     <row r="15" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="57"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="74"/>
+      <c r="Q15" s="66"/>
     </row>
     <row r="16" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="2"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -5984,12 +5984,12 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="10"/>
-      <c r="Q16" s="74"/>
+      <c r="Q16" s="66"/>
     </row>
     <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="71"/>
       <c r="D17" s="35" t="s">
         <v>8</v>
       </c>
@@ -6009,12 +6009,12 @@
       <c r="L17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q17" s="74"/>
+      <c r="Q17" s="66"/>
     </row>
     <row r="18" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="13"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -6024,7 +6024,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="14"/>
-      <c r="Q18" s="74"/>
+      <c r="Q18" s="66"/>
     </row>
     <row r="19" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -6039,7 +6039,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="Q19" s="74"/>
+      <c r="Q19" s="66"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
@@ -6058,43 +6058,43 @@
     </row>
     <row r="21" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="76"/>
       <c r="Q21" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="71"/>
-      <c r="Q22" s="74" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
+      <c r="Q22" s="66" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2"/>
@@ -6107,35 +6107,35 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="10"/>
-      <c r="Q23" s="74"/>
+      <c r="Q23" s="66"/>
     </row>
     <row r="24" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="57"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="69"/>
       <c r="L24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="74"/>
+      <c r="Q24" s="66"/>
     </row>
     <row r="25" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="2"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -6145,12 +6145,12 @@
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="10"/>
-      <c r="Q25" s="74"/>
+      <c r="Q25" s="66"/>
     </row>
     <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="35" t="s">
         <v>14</v>
       </c>
@@ -6170,12 +6170,12 @@
       <c r="L26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="74"/>
+      <c r="Q26" s="66"/>
     </row>
     <row r="27" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="52"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -6185,12 +6185,12 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="53"/>
-      <c r="Q27" s="74"/>
+      <c r="Q27" s="66"/>
     </row>
     <row r="28" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="2"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -6200,12 +6200,12 @@
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="10"/>
-      <c r="Q28" s="74"/>
+      <c r="Q28" s="66"/>
     </row>
     <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="35" t="s">
         <v>15</v>
       </c>
@@ -6225,12 +6225,12 @@
       <c r="L29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q29" s="74"/>
+      <c r="Q29" s="66"/>
     </row>
     <row r="30" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="52"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -6244,8 +6244,8 @@
     </row>
     <row r="31" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="2"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
@@ -6258,8 +6258,8 @@
     </row>
     <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="35" t="s">
         <v>37</v>
       </c>
@@ -6282,8 +6282,8 @@
     </row>
     <row r="33" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="52"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -6296,8 +6296,8 @@
     </row>
     <row r="34" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="2"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
@@ -6310,8 +6310,8 @@
     </row>
     <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="35" t="s">
         <v>31</v>
       </c>
@@ -6334,8 +6334,8 @@
     </row>
     <row r="36" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="52"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -6348,8 +6348,8 @@
     </row>
     <row r="37" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="2"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
@@ -6362,8 +6362,8 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="63"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="35" t="s">
         <v>17</v>
       </c>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="39" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="57"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="50"/>
       <c r="D39" s="35"/>
       <c r="E39" s="34"/>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="57"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="50"/>
       <c r="D40" s="40" t="s">
         <v>18</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="41" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="57"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="50"/>
       <c r="D41" s="31"/>
       <c r="E41" s="7"/>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="42" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="57"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="50"/>
       <c r="D42" s="35"/>
       <c r="E42" s="34"/>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="57"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="50"/>
       <c r="D43" s="40" t="s">
         <v>32</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="44" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="50"/>
       <c r="D44" s="31"/>
       <c r="E44" s="7"/>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="45" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="50"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="46" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="51"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="15"/>
@@ -6526,30 +6526,30 @@
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="57"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="59" t="s">
+      <c r="I48" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="60"/>
-      <c r="K48" s="61"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="69"/>
       <c r="L48" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="62"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="2"/>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
@@ -6562,8 +6562,8 @@
     </row>
     <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="63"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="35" t="s">
         <v>14</v>
       </c>
@@ -6586,8 +6586,8 @@
     </row>
     <row r="51" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="80"/>
       <c r="D51" s="52"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -6600,8 +6600,8 @@
     </row>
     <row r="52" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="2"/>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
@@ -6614,8 +6614,8 @@
     </row>
     <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="35" t="s">
         <v>15</v>
       </c>
@@ -6638,8 +6638,8 @@
     </row>
     <row r="54" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="80"/>
       <c r="D54" s="52"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -6652,8 +6652,8 @@
     </row>
     <row r="55" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="63"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="2"/>
       <c r="E55" s="34"/>
       <c r="F55" s="34"/>
@@ -6666,8 +6666,8 @@
     </row>
     <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="63"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="35" t="s">
         <v>37</v>
       </c>
@@ -6690,8 +6690,8 @@
     </row>
     <row r="57" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="64"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="80"/>
       <c r="D57" s="52"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -6704,8 +6704,8 @@
     </row>
     <row r="58" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="63"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="2"/>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
@@ -6718,8 +6718,8 @@
     </row>
     <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="63"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="35" t="s">
         <v>31</v>
       </c>
@@ -6742,8 +6742,8 @@
     </row>
     <row r="60" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="80"/>
       <c r="D60" s="52"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -6756,8 +6756,8 @@
     </row>
     <row r="61" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="63"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="2"/>
       <c r="E61" s="34"/>
       <c r="F61" s="34"/>
@@ -6770,8 +6770,8 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="63"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="35" t="s">
         <v>17</v>
       </c>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="63" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="57"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="50"/>
       <c r="D63" s="35"/>
       <c r="E63" s="34"/>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="50"/>
       <c r="D64" s="40" t="s">
         <v>33</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="65" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="50"/>
       <c r="D65" s="31"/>
       <c r="E65" s="7"/>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="66" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="57"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="50"/>
       <c r="D66" s="35"/>
       <c r="E66" s="34"/>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="57"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="50"/>
       <c r="D67" s="40" t="s">
         <v>34</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="68" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="57"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="50"/>
       <c r="D68" s="31"/>
       <c r="E68" s="7"/>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="69" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="50"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="70" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="58"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="51"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -6946,37 +6946,37 @@
     </row>
     <row r="73" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="68"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="76"/>
     </row>
     <row r="74" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="71"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="79"/>
     </row>
     <row r="75" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="2"/>
@@ -6992,30 +6992,30 @@
     </row>
     <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="57"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="59" t="s">
+      <c r="E76" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F76" s="60"/>
-      <c r="G76" s="61"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="69"/>
       <c r="H76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I76" s="59" t="s">
+      <c r="I76" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J76" s="60"/>
-      <c r="K76" s="61"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="69"/>
       <c r="L76" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="62"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="2"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
@@ -7028,8 +7028,8 @@
     </row>
     <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="63"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="35" t="s">
         <v>21</v>
       </c>
@@ -7052,8 +7052,8 @@
     </row>
     <row r="79" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="80"/>
       <c r="D79" s="52"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -7066,8 +7066,8 @@
     </row>
     <row r="80" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="63"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="2"/>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
@@ -7080,8 +7080,8 @@
     </row>
     <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="63"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="71"/>
       <c r="D81" s="35" t="s">
         <v>22</v>
       </c>
@@ -7104,8 +7104,8 @@
     </row>
     <row r="82" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="64"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="80"/>
       <c r="D82" s="52"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="83" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="2"/>
@@ -7134,30 +7134,30 @@
     </row>
     <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
-      <c r="B84" s="57"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="59" t="s">
+      <c r="E84" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="60"/>
-      <c r="G84" s="61"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="69"/>
       <c r="H84" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I84" s="59" t="s">
+      <c r="I84" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J84" s="60"/>
-      <c r="K84" s="61"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="69"/>
       <c r="L84" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="62"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="2"/>
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
@@ -7170,8 +7170,8 @@
     </row>
     <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="63"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="71"/>
       <c r="D86" s="35" t="s">
         <v>21</v>
       </c>
@@ -7194,8 +7194,8 @@
     </row>
     <row r="87" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="64"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="80"/>
       <c r="D87" s="52"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -7208,8 +7208,8 @@
     </row>
     <row r="88" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="63"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="71"/>
       <c r="D88" s="2"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
@@ -7222,8 +7222,8 @@
     </row>
     <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="63"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="71"/>
       <c r="D89" s="35" t="s">
         <v>22</v>
       </c>
@@ -7246,8 +7246,8 @@
     </row>
     <row r="90" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="72"/>
       <c r="D90" s="13"/>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
@@ -8045,6 +8045,37 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/Chmw4zSd3RJ1wMxaE3DbLzaXzujPt7FFSOhA/pH0mLBB1mHkoDZPXarzxdqU85i1j82PBx4Eb6X22eWPx1tJQ==" saltValue="Wv6Y+aUwtP+n2PtDScGYIg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="43">
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="B47:B70"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B74:L74"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="Q22:Q29"/>
+    <mergeCell ref="B23:B46"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B6:L6"/>
@@ -8057,37 +8088,6 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="Q22:Q29"/>
-    <mergeCell ref="B23:B46"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B47:B70"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="B74:L74"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="I84:K84"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C88:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8095,19 +8095,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24577" r:id="rId3" name="cbApplyLevelFormatting">
+        <control shapeId="24599" r:id="rId3" name="cbApplyOddEvenFormatting">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
             </anchor>
@@ -8115,13 +8115,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24577" r:id="rId3" name="cbApplyLevelFormatting"/>
+        <control shapeId="24599" r:id="rId3" name="cbApplyOddEvenFormatting"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="24583" r:id="rId5" name="cbApplyMemberFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId4">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8145,19 +8145,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24599" r:id="rId6" name="cbApplyOddEvenFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId7">
+        <control shapeId="24577" r:id="rId7" name="cbApplyLevelFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
             </anchor>
@@ -8165,7 +8165,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24599" r:id="rId6" name="cbApplyOddEvenFormatting"/>
+        <control shapeId="24577" r:id="rId7" name="cbApplyLevelFormatting"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9124,11 +9124,11 @@
   <dimension ref="A1:CG6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="AZ1048556" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K6" sqref="K6"/>
       <selection pane="topRight" activeCell="K6" sqref="K6"/>
       <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6:CG1048576"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9447,16 +9447,15 @@
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <customProperties>
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
-  <picture r:id="rId6"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <picture r:id="rId5"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3093" r:id="rId7" name="FPMExcelClientSheetOptionstb1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+        <control shapeId="3093" r:id="rId6" name="FPMExcelClientSheetOptionstb1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -9475,7 +9474,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3093" r:id="rId7" name="FPMExcelClientSheetOptionstb1"/>
+        <control shapeId="3093" r:id="rId6" name="FPMExcelClientSheetOptionstb1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9488,10 +9487,10 @@
   <dimension ref="A1:CG6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="AZ1048556" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6:CG1048576"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9810,16 +9809,40 @@
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <customProperties>
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
-  <picture r:id="rId6"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <picture r:id="rId5"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5127" r:id="rId7" name="TextBox2">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId8">
+        <control shapeId="5121" r:id="rId6" name="FPMExcelClientSheetOptionstb1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5121" r:id="rId6" name="FPMExcelClientSheetOptionstb1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5127" r:id="rId8" name="TextBox2">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId9">
             <anchor>
               <from>
                 <xdr:col>8</xdr:col>
@@ -9838,32 +9861,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5127" r:id="rId7" name="TextBox2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId9" name="FPMExcelClientSheetOptionstb1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5121" r:id="rId9" name="FPMExcelClientSheetOptionstb1"/>
+        <control shapeId="5127" r:id="rId8" name="TextBox2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
